--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.020301</v>
       </c>
       <c r="I2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J2">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N2">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q2">
-        <v>0.001447247011666667</v>
+        <v>0.005794160290333333</v>
       </c>
       <c r="R2">
-        <v>0.013025223105</v>
+        <v>0.05214744261300001</v>
       </c>
       <c r="S2">
-        <v>0.0002645145697638025</v>
+        <v>0.02164037478166314</v>
       </c>
       <c r="T2">
-        <v>0.0002645145697638025</v>
+        <v>0.02164037478166314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.020301</v>
       </c>
       <c r="I3">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J3">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>11.628537</v>
       </c>
       <c r="O3">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P3">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q3">
         <v>0.026230103293</v>
@@ -641,10 +641,10 @@
         <v>0.236070929637</v>
       </c>
       <c r="S3">
-        <v>0.004794098333924236</v>
+        <v>0.09796575127016399</v>
       </c>
       <c r="T3">
-        <v>0.004794098333924235</v>
+        <v>0.09796575127016398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,40 +673,40 @@
         <v>0.020301</v>
       </c>
       <c r="I4">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J4">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N4">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q4">
-        <v>0.0001424024923333333</v>
+        <v>0.0002287246</v>
       </c>
       <c r="R4">
-        <v>0.001281622431</v>
+        <v>0.0020585214</v>
       </c>
       <c r="S4">
-        <v>2.602702488876897E-05</v>
+        <v>0.0008542542521724469</v>
       </c>
       <c r="T4">
-        <v>2.602702488876897E-05</v>
+        <v>0.0008542542521724467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.020301</v>
       </c>
       <c r="I5">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J5">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N5">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O5">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P5">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q5">
-        <v>0.024557287359</v>
+        <v>0.02599753278133333</v>
       </c>
       <c r="R5">
-        <v>0.221015586231</v>
+        <v>0.233977795032</v>
       </c>
       <c r="S5">
-        <v>0.004488356339980525</v>
+        <v>0.09709713307814978</v>
       </c>
       <c r="T5">
-        <v>0.004488356339980524</v>
+        <v>0.09709713307814977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +797,40 @@
         <v>0.020301</v>
       </c>
       <c r="I6">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J6">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O6">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P6">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q6">
-        <v>0.0003557366786666666</v>
+        <v>0.0001055742226666667</v>
       </c>
       <c r="R6">
-        <v>0.003201630108</v>
+        <v>0.0009501680039999999</v>
       </c>
       <c r="S6">
-        <v>6.501829594269024E-05</v>
+        <v>0.0003943048917029507</v>
       </c>
       <c r="T6">
-        <v>6.501829594269023E-05</v>
+        <v>0.0003943048917029506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,40 +859,40 @@
         <v>0.020301</v>
       </c>
       <c r="I7">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="J7">
-        <v>0.009931743419443339</v>
+        <v>0.2183560641913695</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N7">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O7">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P7">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q7">
-        <v>0.001607088063</v>
+        <v>0.0001082359093333333</v>
       </c>
       <c r="R7">
-        <v>0.014463792567</v>
+        <v>0.0009741231839999999</v>
       </c>
       <c r="S7">
-        <v>0.0002937288549433173</v>
+        <v>0.0004042459175171863</v>
       </c>
       <c r="T7">
-        <v>0.0002937288549433172</v>
+        <v>0.0004042459175171863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H8">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I8">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J8">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N8">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O8">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P8">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q8">
-        <v>0.02413646720555556</v>
+        <v>0.019863857629</v>
       </c>
       <c r="R8">
-        <v>0.21722820485</v>
+        <v>0.178774718661</v>
       </c>
       <c r="S8">
-        <v>0.004411442681884175</v>
+        <v>0.07418871797839563</v>
       </c>
       <c r="T8">
-        <v>0.004411442681884175</v>
+        <v>0.07418871797839563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H9">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I9">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J9">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.628537</v>
       </c>
       <c r="O9">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P9">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q9">
-        <v>0.4374526413433333</v>
+        <v>0.08992347662099999</v>
       </c>
       <c r="R9">
-        <v>3.93707377209</v>
+        <v>0.8093112895889999</v>
       </c>
       <c r="S9">
-        <v>0.07995359208495781</v>
+        <v>0.3358515536746763</v>
       </c>
       <c r="T9">
-        <v>0.07995359208495779</v>
+        <v>0.3358515536746762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H10">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I10">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J10">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N10">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O10">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P10">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q10">
-        <v>0.002374918074444444</v>
+        <v>0.0007841261999999999</v>
       </c>
       <c r="R10">
-        <v>0.02137426267</v>
+        <v>0.007057135799999999</v>
       </c>
       <c r="S10">
-        <v>0.0004340658005315261</v>
+        <v>0.002928601211193822</v>
       </c>
       <c r="T10">
-        <v>0.000434065800531526</v>
+        <v>0.002928601211193822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H11">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I11">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J11">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N11">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O11">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P11">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q11">
-        <v>0.40955424763</v>
+        <v>0.08912616565599997</v>
       </c>
       <c r="R11">
-        <v>3.68598822867</v>
+        <v>0.8021354909039998</v>
       </c>
       <c r="S11">
-        <v>0.07485457888907968</v>
+        <v>0.3328737092182646</v>
       </c>
       <c r="T11">
-        <v>0.07485457888907966</v>
+        <v>0.3328737092182646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1128566666666667</v>
+        <v>0.023199</v>
       </c>
       <c r="H12">
-        <v>0.33857</v>
+        <v>0.06959699999999999</v>
       </c>
       <c r="I12">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999526</v>
       </c>
       <c r="J12">
-        <v>0.1656366863465313</v>
+        <v>0.7485802176999528</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O12">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P12">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q12">
-        <v>0.005932799728888888</v>
+        <v>0.0003619353319999999</v>
       </c>
       <c r="R12">
-        <v>0.05339519756</v>
+        <v>0.003257417987999999</v>
       </c>
       <c r="S12">
-        <v>0.001084342862780978</v>
+        <v>0.001351777624149069</v>
       </c>
       <c r="T12">
-        <v>0.001084342862780978</v>
+        <v>0.001351777624149069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.023199</v>
+      </c>
+      <c r="H13">
+        <v>0.06959699999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.7485802176999526</v>
+      </c>
+      <c r="J13">
+        <v>0.7485802176999528</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.1128566666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.33857</v>
-      </c>
-      <c r="I13">
-        <v>0.1656366863465313</v>
-      </c>
-      <c r="J13">
-        <v>0.1656366863465313</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N13">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O13">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P13">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q13">
-        <v>0.02680221691</v>
+        <v>0.000371060272</v>
       </c>
       <c r="R13">
-        <v>0.24121995219</v>
+        <v>0.003339542448</v>
       </c>
       <c r="S13">
-        <v>0.004898664027297125</v>
+        <v>0.001385857993273416</v>
       </c>
       <c r="T13">
-        <v>0.004898664027297125</v>
+        <v>0.001385857993273416</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H14">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I14">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J14">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N14">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O14">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P14">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q14">
-        <v>0.1199164735261111</v>
+        <v>0.0008773581957777778</v>
       </c>
       <c r="R14">
-        <v>1.079248261735</v>
+        <v>0.007896223762</v>
       </c>
       <c r="S14">
-        <v>0.0219172360672716</v>
+        <v>0.003276809619173071</v>
       </c>
       <c r="T14">
-        <v>0.0219172360672716</v>
+        <v>0.00327680961917307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H15">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I15">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J15">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.628537</v>
       </c>
       <c r="O15">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P15">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q15">
-        <v>2.173382609717667</v>
+        <v>0.003971791415333333</v>
       </c>
       <c r="R15">
-        <v>19.560443487459</v>
+        <v>0.035746122738</v>
       </c>
       <c r="S15">
-        <v>0.3972309918813012</v>
+        <v>0.01483408302076174</v>
       </c>
       <c r="T15">
-        <v>0.3972309918813012</v>
+        <v>0.01483408302076174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H16">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I16">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J16">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N16">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O16">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P16">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q16">
-        <v>0.01179923300188889</v>
+        <v>3.463373333333333E-05</v>
       </c>
       <c r="R16">
-        <v>0.106193097017</v>
+        <v>0.0003117036</v>
       </c>
       <c r="S16">
-        <v>0.002156555871857176</v>
+        <v>0.0001293521290171963</v>
       </c>
       <c r="T16">
-        <v>0.002156555871857175</v>
+        <v>0.0001293521290171963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H17">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I17">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J17">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N17">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O17">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P17">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q17">
-        <v>2.034775871513001</v>
+        <v>0.003936575329777777</v>
       </c>
       <c r="R17">
-        <v>18.312982843617</v>
+        <v>0.03542917796799999</v>
       </c>
       <c r="S17">
-        <v>0.3718977202096262</v>
+        <v>0.01470255588799726</v>
       </c>
       <c r="T17">
-        <v>0.3718977202096262</v>
+        <v>0.01470255588799726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H18">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I18">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J18">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N18">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O18">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P18">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q18">
-        <v>0.02947574786177778</v>
+        <v>1.598616622222222E-05</v>
       </c>
       <c r="R18">
-        <v>0.265281730756</v>
+        <v>0.000143875496</v>
       </c>
       <c r="S18">
-        <v>0.005387307557916894</v>
+        <v>5.970608527140882E-05</v>
       </c>
       <c r="T18">
-        <v>0.005387307557916893</v>
+        <v>5.970608527140881E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,433 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5607023333333334</v>
+        <v>0.001024666666666667</v>
       </c>
       <c r="H19">
-        <v>1.682107</v>
+        <v>0.003074</v>
       </c>
       <c r="I19">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="J19">
-        <v>0.8229276945987676</v>
+        <v>0.03306371810867789</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N19">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O19">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P19">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q19">
-        <v>0.133160636441</v>
+        <v>1.638920177777778E-05</v>
       </c>
       <c r="R19">
-        <v>1.198445727969</v>
+        <v>0.000147502816</v>
       </c>
       <c r="S19">
-        <v>0.02433788301079448</v>
+        <v>6.121136645721052E-05</v>
       </c>
       <c r="T19">
-        <v>0.02433788301079448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.003074</v>
-      </c>
-      <c r="I20">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J20">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.2138683333333334</v>
-      </c>
-      <c r="N20">
-        <v>0.6416050000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.02663324640928231</v>
-      </c>
-      <c r="P20">
-        <v>0.02663324640928231</v>
-      </c>
-      <c r="Q20">
-        <v>0.0002191437522222222</v>
-      </c>
-      <c r="R20">
-        <v>0.00197229377</v>
-      </c>
-      <c r="S20">
-        <v>4.005309036273725E-05</v>
-      </c>
-      <c r="T20">
-        <v>4.005309036273726E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.003074</v>
-      </c>
-      <c r="I21">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J21">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.876179</v>
-      </c>
-      <c r="N21">
-        <v>11.628537</v>
-      </c>
-      <c r="O21">
-        <v>0.4827046100021922</v>
-      </c>
-      <c r="P21">
-        <v>0.4827046100021921</v>
-      </c>
-      <c r="Q21">
-        <v>0.003971791415333333</v>
-      </c>
-      <c r="R21">
-        <v>0.035746122738</v>
-      </c>
-      <c r="S21">
-        <v>0.0007259277020089206</v>
-      </c>
-      <c r="T21">
-        <v>0.0007259277020089206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.003074</v>
-      </c>
-      <c r="I22">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J22">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.02104366666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.06313099999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.002620589738334959</v>
-      </c>
-      <c r="P22">
-        <v>0.002620589738334959</v>
-      </c>
-      <c r="Q22">
-        <v>2.156274377777778E-05</v>
-      </c>
-      <c r="R22">
-        <v>0.000194064694</v>
-      </c>
-      <c r="S22">
-        <v>3.941041057488587E-06</v>
-      </c>
-      <c r="T22">
-        <v>3.941041057488587E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.003074</v>
-      </c>
-      <c r="I23">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J23">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.628977</v>
-      </c>
-      <c r="N23">
-        <v>10.886931</v>
-      </c>
-      <c r="O23">
-        <v>0.4519202873479077</v>
-      </c>
-      <c r="P23">
-        <v>0.4519202873479076</v>
-      </c>
-      <c r="Q23">
-        <v>0.003718491766</v>
-      </c>
-      <c r="R23">
-        <v>0.033466425894</v>
-      </c>
-      <c r="S23">
-        <v>0.0006796319092212272</v>
-      </c>
-      <c r="T23">
-        <v>0.0006796319092212272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.003074</v>
-      </c>
-      <c r="I24">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J24">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.05256933333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.157708</v>
-      </c>
-      <c r="O24">
-        <v>0.006546513859329486</v>
-      </c>
-      <c r="P24">
-        <v>0.006546513859329485</v>
-      </c>
-      <c r="Q24">
-        <v>5.386604355555555E-05</v>
-      </c>
-      <c r="R24">
-        <v>0.0004847943919999999</v>
-      </c>
-      <c r="S24">
-        <v>9.845142688923194E-06</v>
-      </c>
-      <c r="T24">
-        <v>9.845142688923194E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.001024666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.003074</v>
-      </c>
-      <c r="I25">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="J25">
-        <v>0.001503875635257811</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.237489</v>
-      </c>
-      <c r="N25">
-        <v>0.712467</v>
-      </c>
-      <c r="O25">
-        <v>0.02957475264295344</v>
-      </c>
-      <c r="P25">
-        <v>0.02957475264295343</v>
-      </c>
-      <c r="Q25">
-        <v>0.000243347062</v>
-      </c>
-      <c r="R25">
-        <v>0.002190123558</v>
-      </c>
-      <c r="S25">
-        <v>4.447674991851422E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.447674991851422E-05</v>
+        <v>6.12113664572105E-05</v>
       </c>
     </row>
   </sheetData>
